--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3341.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3341.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161543213927758</v>
+        <v>1.280225872993469</v>
       </c>
       <c r="B1">
-        <v>2.774247481523675</v>
+        <v>3.739739418029785</v>
       </c>
       <c r="C1">
-        <v>7.895390815870024</v>
+        <v>3.389606952667236</v>
       </c>
       <c r="D1">
-        <v>2.14635383881982</v>
+        <v>2.539255142211914</v>
       </c>
       <c r="E1">
-        <v>1.217002138612767</v>
+        <v>0.9886522889137268</v>
       </c>
     </row>
   </sheetData>
